--- a/docs/reference/filename.xlsx
+++ b/docs/reference/filename.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  18.03.2021  durch:  </t>
+    <t xml:space="preserve">Aktualisiert am  28.04.2021  durch:  </t>
   </si>
   <si>
     <t xml:space="preserve">mpg</t>
@@ -80,9 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,###0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -139,31 +137,30 @@
       <left style="thin">
         <color rgb="FF4F81BD"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF009EE0"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF4F81BD"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF009EE0"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,22 +483,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -516,37 +513,37 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -560,28 +557,28 @@
       <c r="C14" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" t="n">
         <v>110</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" t="n">
         <v>3.9</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" t="n">
         <v>2.62</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" t="n">
         <v>16.46</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="n">
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -595,28 +592,28 @@
       <c r="C15" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>110</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" t="n">
         <v>3.9</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" t="n">
         <v>2.875</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" t="n">
         <v>17.02</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="n">
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -669,22 +666,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -699,37 +696,37 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -743,28 +740,28 @@
       <c r="C14" s="5" t="n">
         <v>108</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" t="n">
         <v>93</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" t="n">
         <v>3.85</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" t="n">
         <v>2.32</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" t="n">
         <v>18.61</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="n">
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,28 +775,28 @@
       <c r="C15" s="5" t="n">
         <v>258</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>110</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" t="n">
         <v>3.08</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" t="n">
         <v>3.215</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" t="n">
         <v>19.44</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="n">
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -813,28 +810,28 @@
       <c r="C16" s="5" t="n">
         <v>225</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" t="n">
         <v>105</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" t="n">
         <v>2.76</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" t="n">
         <v>3.46</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" t="n">
         <v>20.22</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="n">
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -887,22 +884,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -917,37 +914,37 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -961,28 +958,28 @@
       <c r="C14" s="5" t="n">
         <v>360</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" t="n">
         <v>175</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" t="n">
         <v>3.15</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" t="n">
         <v>3.44</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" t="n">
         <v>17.02</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" t="n">
         <v>2</v>
       </c>
     </row>

--- a/docs/reference/filename.xlsx
+++ b/docs/reference/filename.xlsx
@@ -6,9 +6,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="carb,2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="carb,1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="carb,4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="4" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t xml:space="preserve">Tabelle 4</t>
+    <t xml:space="preserve">Tabelle (carb: 4)</t>
   </si>
   <si>
     <t xml:space="preserve">remarks: ....</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  28.04.2021  durch:  </t>
+    <t xml:space="preserve">Aktualisiert am  29.04.2021  durch:  </t>
   </si>
   <si>
     <t xml:space="preserve">mpg</t>
@@ -70,10 +70,10 @@
     <t xml:space="preserve">carb</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabelle 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabelle 2</t>
+    <t xml:space="preserve">Tabelle (carb: 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabelle (carb: 2)</t>
   </si>
 </sst>
 </file>
